--- a/NPV_Calculation_Test.xlsx
+++ b/NPV_Calculation_Test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lab_Meeting\Simulation_Model\2D_15-by-15_DQN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation\2D_15-by-15_DQN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{189CCFFA-C49E-4BF8-A6F2-DF66C1FE2D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8C5E9-6597-4417-A3E4-79DE8E31CB84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{6326AD90-3000-457C-9321-B987C392313D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" activeTab="1" xr2:uid="{6326AD90-3000-457C-9321-B987C392313D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>FOPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165E121E-0D62-437C-AD56-76E03A632F35}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,4 +736,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F1D86-FE26-4417-A886-8276ABEBC233}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>K2-L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>82362.17</v>
+      </c>
+      <c r="F3">
+        <v>436.77929999999998</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>(E3-E2)*$B$2/((1+$B$6)^(120*1/365))</f>
+        <v>4789282.7403669879</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">(F3-F2)*$B$3/((1+$B$6)^(120*5/365))</f>
+        <v>-1120.3159846998476</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="1">SUM(H3:I3)</f>
+        <v>4788162.424382288</v>
+      </c>
+      <c r="L3">
+        <v>981268.31969504105</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="2">K3-L3</f>
+        <v>3806894.104687247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>144129.29999999999</v>
+      </c>
+      <c r="F4">
+        <v>879.14869999999996</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>(E4-E3)*$B$2/((1+$B$6)^(120*2/365))</f>
+        <v>3480900.1422857125</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>-1134.6542978618281</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>3479765.4879878508</v>
+      </c>
+      <c r="L4">
+        <v>2912645.6381834201</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>567119.84980443073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>360</v>
+      </c>
+      <c r="E5">
+        <v>212768.9</v>
+      </c>
+      <c r="F5">
+        <v>1526.1489999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>(E5-E4)*$B$2/((1+$B$6)^(120*3/365))</f>
+        <v>3748869.5829569525</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-1659.5218184460591</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3747210.0611385065</v>
+      </c>
+      <c r="L5">
+        <v>5878628.8155099601</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>-2131418.7543714535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>480</v>
+      </c>
+      <c r="E6">
+        <v>247679.6</v>
+      </c>
+      <c r="F6">
+        <v>1889.626</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>(E6-E5)*$B$2/((1+$B$6)^(120*4/365))</f>
+        <v>1847887.7705987198</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-932.29943170554702</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1846955.4711670142</v>
+      </c>
+      <c r="L6">
+        <v>3060168.7046137098</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>-1213213.2334466956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>269703.09999999998</v>
+      </c>
+      <c r="F7">
+        <v>2139.1419999999998</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>(E7-E6)*$B$2/((1+$B$6)^(120*5/365))</f>
+        <v>1129782.4365319996</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-639.99544675850484</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1129142.441085241</v>
+      </c>
+      <c r="L7">
+        <v>1327928.91120496</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>-198786.47011971893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>720</v>
+      </c>
+      <c r="E8">
+        <v>278109.5</v>
+      </c>
+      <c r="F8">
+        <v>2235.9349999999999</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>(E8-E7)*$B$2/((1+$B$6)^(120*6/365))</f>
+        <v>417936.18814272026</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-248.26896583023162</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>417687.91917689005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>840</v>
+      </c>
+      <c r="E9">
+        <v>281568.90000000002</v>
+      </c>
+      <c r="F9">
+        <v>2276.0140000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>(E9-E8)*$B$2/((1+$B$6)^(120*7/365))</f>
+        <v>166683.32427497581</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I8:I9" si="3">(F9-F8)*$B$3/((1+$B$6)^(120*5/365))</f>
+        <v>-102.80053187224165</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>166580.52374310358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f>SUM(K3:K7)/(10^6)</f>
+        <v>14.991235885760901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>